--- a/Thermo-couple/temp.xlsx
+++ b/Thermo-couple/temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>T[C]</t>
   </si>
@@ -27,16 +27,13 @@
   <si>
     <t>ΔV</t>
   </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +44,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -78,18 +81,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -403,10 +403,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -423,244 +423,298 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2">
-        <v>6.592</v>
+        <v>87.475</v>
       </c>
       <c r="B2" s="2">
         <v>0.054</v>
       </c>
       <c r="C2" s="2">
-        <v>0.22</v>
+        <v>3.7</v>
       </c>
       <c r="D2" s="2">
-        <v>0.020066</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+        <v>0.02111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2">
-        <v>-4.96</v>
+        <v>82.108</v>
       </c>
       <c r="B3" s="2">
         <v>0.054</v>
       </c>
       <c r="C3" s="2">
-        <v>-0.21</v>
+        <v>3.44</v>
       </c>
       <c r="D3" s="2">
-        <v>0.019937</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+        <v>0.021032</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2">
-        <v>-19.067</v>
+        <v>76.708</v>
       </c>
       <c r="B4" s="2">
         <v>0.054</v>
       </c>
       <c r="C4" s="2">
-        <v>-0.77</v>
+        <v>3.18</v>
       </c>
       <c r="D4" s="2">
-        <v>0.019769</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+        <v>0.020954</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2">
-        <v>-25.93</v>
+        <v>72.3</v>
       </c>
       <c r="B5" s="2">
         <v>0.054</v>
       </c>
       <c r="C5" s="2">
-        <v>-1.02</v>
+        <v>2.97</v>
       </c>
       <c r="D5" s="2">
-        <v>0.019694</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+        <v>0.020891</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2">
-        <v>-32.045</v>
+        <v>69.008</v>
       </c>
       <c r="B6" s="2">
         <v>0.054</v>
       </c>
       <c r="C6" s="2">
-        <v>-1.25</v>
+        <v>2.81</v>
       </c>
       <c r="D6" s="2">
-        <v>0.019625</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+        <v>0.020843</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2">
-        <v>-41.675</v>
+        <v>64.217</v>
       </c>
       <c r="B7" s="2">
         <v>0.054</v>
       </c>
       <c r="C7" s="2">
-        <v>-1.6</v>
+        <v>2.69</v>
       </c>
       <c r="D7" s="2">
-        <v>0.01952</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+        <v>0.020807</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2">
-        <v>-49.079</v>
+        <v>55.51</v>
       </c>
       <c r="B8" s="2">
         <v>0.05</v>
       </c>
       <c r="C8" s="2">
-        <v>-1.88</v>
+        <v>2.59</v>
       </c>
       <c r="D8" s="2">
-        <v>0.019436</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+        <v>0.020777</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2">
-        <v>-58.533</v>
+        <v>51.33</v>
       </c>
       <c r="B9" s="2">
         <v>0.05</v>
       </c>
       <c r="C9" s="2">
-        <v>-2.26</v>
+        <v>2.49</v>
       </c>
       <c r="D9" s="2">
-        <v>0.019322</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+        <v>0.020747</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2">
-        <v>-73.217</v>
+        <v>48.36</v>
       </c>
       <c r="B10" s="2">
         <v>0.05</v>
       </c>
       <c r="C10" s="2">
-        <v>-2.69</v>
+        <v>2.39</v>
       </c>
       <c r="D10" s="2">
-        <v>0.019193</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+        <v>0.020717</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2">
-        <v>-79.633</v>
+        <v>48.74</v>
       </c>
       <c r="B11" s="2">
         <v>0.05</v>
       </c>
       <c r="C11" s="2">
-        <v>-2.91</v>
+        <v>2.25</v>
       </c>
       <c r="D11" s="2">
-        <v>0.019127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+        <v>0.020675</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2">
-        <v>-87.457</v>
+        <v>46.84</v>
       </c>
       <c r="B12" s="2">
         <v>0.05</v>
       </c>
       <c r="C12" s="2">
-        <v>-3.18</v>
+        <v>2.08</v>
       </c>
       <c r="D12" s="2">
-        <v>0.019046</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+        <v>0.020624</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2">
-        <v>-96.58</v>
+        <v>44.56</v>
       </c>
       <c r="B13" s="2">
         <v>0.05</v>
       </c>
       <c r="C13" s="2">
-        <v>-3.47</v>
+        <v>1.87</v>
       </c>
       <c r="D13" s="2">
-        <v>0.018959</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+        <v>0.020561</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2">
-        <v>-104.24</v>
+        <v>40.76</v>
       </c>
       <c r="B14" s="2">
         <v>0.05</v>
       </c>
       <c r="C14" s="2">
-        <v>-3.65</v>
+        <v>1.7</v>
       </c>
       <c r="D14" s="2">
-        <v>0.018905</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4" t="s">
-        <v>4</v>
+        <v>0.02051</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="2">
+        <v>37.533</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.054</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.02048</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="2">
+        <v>33.013</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.020408</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="2">
+        <v>28.287</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.02033</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="2">
+        <v>25.65</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.0203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="2">
+        <v>24.332</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.020285</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="2">
+        <v>23.39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.020276</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="2">
+        <v>17.72</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.020207</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="2">
+        <v>7.533</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.020072</v>
       </c>
     </row>
   </sheetData>

--- a/Thermo-couple/temp.xlsx
+++ b/Thermo-couple/temp.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>T[C]</t>
+    <t>t[sec]</t>
+  </si>
+  <si>
+    <t>Δt</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>Delta T</t>
-  </si>
-  <si>
-    <t>V[mV]</t>
-  </si>
-  <si>
-    <t>ΔV</t>
   </si>
 </sst>
 </file>
@@ -43,13 +43,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -81,15 +81,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -397,325 +406,1205 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2">
-        <v>87.475</v>
+      <c r="A2" s="4">
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.054</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.7</v>
+        <v>0.29</v>
+      </c>
+      <c r="C2" s="5">
+        <v>80.192</v>
       </c>
       <c r="D2" s="2">
-        <v>0.02111</v>
+        <v>0.054</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2">
-        <v>82.108</v>
+      <c r="A3" s="4">
+        <v>60</v>
       </c>
       <c r="B3" s="2">
-        <v>0.054</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.44</v>
+        <v>0.29</v>
+      </c>
+      <c r="C3" s="5">
+        <v>79.583</v>
       </c>
       <c r="D3" s="2">
-        <v>0.021032</v>
+        <v>0.054</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
+        <v>120</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C4" s="5">
+        <v>79.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4">
+        <v>180</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C5" s="5">
+        <v>78.625</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="4">
+        <v>240</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C6" s="5">
+        <v>78.242</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="4">
+        <v>300</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C7" s="5">
+        <v>77.667</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="4">
+        <v>360</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C8" s="5">
+        <v>77.283</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="4">
+        <v>420</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C9" s="5">
         <v>76.708</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.054</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.020954</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2">
-        <v>72.3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.054</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.97</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.020891</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2">
-        <v>69.008</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.054</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.81</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.020843</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2">
+      <c r="D9" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="4">
+        <v>480</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C10" s="5">
+        <v>76.325</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="4">
+        <v>540</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C11" s="5">
+        <v>75.75</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="4">
+        <v>600</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C12" s="5">
+        <v>75.367</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="4">
+        <v>660</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C13" s="5">
+        <v>74.792</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="4">
+        <v>720</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C14" s="5">
+        <v>74.408</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="4">
+        <v>780</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C15" s="5">
+        <v>73.833</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="4">
+        <v>840</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C16" s="5">
+        <v>73.45</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="4">
+        <v>900</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C17" s="5">
+        <v>72.875</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="4">
+        <v>960</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C18" s="5">
+        <v>72.492</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="4">
+        <v>1020</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C19" s="5">
+        <v>72.108</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="4">
+        <v>1080</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C20" s="5">
+        <v>71.533</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="4">
+        <v>1140</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C21" s="5">
+        <v>71.15</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="4">
+        <v>1200</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C22" s="5">
+        <v>70.767</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="4">
+        <v>1260</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C23" s="5">
+        <v>70.192</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="4">
+        <v>1320</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C24" s="5">
+        <v>69.775</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="4">
+        <v>1380</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C25" s="5">
+        <v>69.2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="4">
+        <v>1440</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C26" s="5">
+        <v>68.817</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="4">
+        <v>1500</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C27" s="5">
+        <v>68.242</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="4">
+        <v>1560</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C28" s="5">
+        <v>67.667</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="4">
+        <v>1620</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C29" s="5">
+        <v>67.475</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="4">
+        <v>1680</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C30" s="5">
+        <v>66.9</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="4">
+        <v>1740</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C31" s="5">
+        <v>66.517</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="4">
+        <v>1800</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C32" s="5">
+        <v>66.133</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="4">
+        <v>1860</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C33" s="5">
+        <v>65.558</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="4">
+        <v>1920</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C34" s="5">
+        <v>65.175</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="4">
+        <v>1980</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C35" s="5">
+        <v>64.6</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="4">
+        <v>2040</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C36" s="5">
         <v>64.217</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.054</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.69</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.020807</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2">
-        <v>55.51</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.59</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.020777</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2">
-        <v>51.33</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2.49</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.020747</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2">
-        <v>48.36</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.020717</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="2">
-        <v>48.74</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.020675</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="2">
-        <v>46.84</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2.08</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.020624</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="2">
-        <v>44.56</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.87</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.020561</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="2">
-        <v>40.76</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.02051</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="2">
-        <v>37.533</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.054</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.02048</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="2">
-        <v>33.013</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1.36</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.020408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="2">
-        <v>28.287</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.02033</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="2">
-        <v>25.65</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.0203</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="2">
-        <v>24.332</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.020285</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="2">
-        <v>23.39</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.020276</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="2">
-        <v>17.72</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.020207</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="2">
-        <v>7.533</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.020072</v>
-      </c>
+      <c r="D36" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="4">
+        <v>2100</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C37" s="5">
+        <v>63.642</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="4">
+        <v>2160</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C38" s="5">
+        <v>63.45</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="4">
+        <v>2220</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C39" s="5">
+        <v>63.067</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="4">
+        <v>2280</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C40" s="5">
+        <v>62.683</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="4">
+        <v>2340</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C41" s="5">
+        <v>62.108</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="4">
+        <v>2400</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C42" s="5">
+        <v>61.725</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="4">
+        <v>2460</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C43" s="5">
+        <v>61.342</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="4">
+        <v>2520</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C44" s="5">
+        <v>60.958</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="4">
+        <v>2580</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C45" s="5">
+        <v>60.575</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="4">
+        <v>2640</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C46" s="5">
+        <v>60.192</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="4">
+        <v>2700</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C47" s="5">
+        <v>60.45</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="4">
+        <v>2760</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C48" s="5">
+        <v>60.07</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="4">
+        <v>2820</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C49" s="5">
+        <v>59.88</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="4">
+        <v>2880</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C50" s="5">
+        <v>59.31</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="4">
+        <v>2940</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C51" s="5">
+        <v>59.12</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="4">
+        <v>3000</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C52" s="5">
+        <v>58.74</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="4">
+        <v>3060</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C53" s="5">
+        <v>58.36</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="4">
+        <v>3120</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C54" s="5">
+        <v>57.98</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="4">
+        <v>3180</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C55" s="5">
+        <v>57.6</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="4">
+        <v>3240</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C56" s="5">
+        <v>57.22</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="4">
+        <v>3300</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C57" s="5">
+        <v>57.03</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="4">
+        <v>3360</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C58" s="5">
+        <v>56.65</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="4">
+        <v>3420</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C59" s="5">
+        <v>56.27</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="4">
+        <v>3480</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="C60" s="5">
+        <v>55.89</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Thermo-couple/temp.xlsx
+++ b/Thermo-couple/temp.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,12 +44,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -81,21 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -412,10 +397,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -425,7 +410,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -433,13 +418,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0.29</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>80.192</v>
       </c>
       <c r="D2" s="2">
@@ -447,13 +432,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2">
         <v>0.29</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>79.583</v>
       </c>
       <c r="D3" s="2">
@@ -461,13 +446,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>120</v>
       </c>
       <c r="B4" s="2">
         <v>0.29</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>79.2</v>
       </c>
       <c r="D4" s="2">
@@ -475,13 +460,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>180</v>
       </c>
       <c r="B5" s="2">
         <v>0.29</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>78.625</v>
       </c>
       <c r="D5" s="2">
@@ -489,13 +474,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>240</v>
       </c>
       <c r="B6" s="2">
         <v>0.29</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>78.242</v>
       </c>
       <c r="D6" s="2">
@@ -503,13 +488,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>300</v>
       </c>
       <c r="B7" s="2">
         <v>0.29</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>77.667</v>
       </c>
       <c r="D7" s="2">
@@ -517,13 +502,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>360</v>
       </c>
       <c r="B8" s="2">
         <v>0.29</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>77.283</v>
       </c>
       <c r="D8" s="2">
@@ -531,13 +516,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>420</v>
       </c>
       <c r="B9" s="2">
         <v>0.29</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>76.708</v>
       </c>
       <c r="D9" s="2">
@@ -545,13 +530,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>480</v>
       </c>
       <c r="B10" s="2">
         <v>0.29</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>76.325</v>
       </c>
       <c r="D10" s="2">
@@ -559,13 +544,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>540</v>
       </c>
       <c r="B11" s="2">
         <v>0.29</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>75.75</v>
       </c>
       <c r="D11" s="2">
@@ -573,13 +558,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>600</v>
       </c>
       <c r="B12" s="2">
         <v>0.29</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>75.367</v>
       </c>
       <c r="D12" s="2">
@@ -587,13 +572,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>660</v>
       </c>
       <c r="B13" s="2">
         <v>0.29</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="2">
         <v>74.792</v>
       </c>
       <c r="D13" s="2">
@@ -601,13 +586,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>720</v>
       </c>
       <c r="B14" s="2">
         <v>0.29</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>74.408</v>
       </c>
       <c r="D14" s="2">
@@ -615,13 +600,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>780</v>
       </c>
       <c r="B15" s="2">
         <v>0.29</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>73.833</v>
       </c>
       <c r="D15" s="2">
@@ -629,13 +614,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>840</v>
       </c>
       <c r="B16" s="2">
         <v>0.29</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>73.45</v>
       </c>
       <c r="D16" s="2">
@@ -643,13 +628,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>900</v>
       </c>
       <c r="B17" s="2">
         <v>0.29</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <v>72.875</v>
       </c>
       <c r="D17" s="2">
@@ -657,13 +642,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>960</v>
       </c>
       <c r="B18" s="2">
         <v>0.29</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2">
         <v>72.492</v>
       </c>
       <c r="D18" s="2">
@@ -671,13 +656,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>1020</v>
       </c>
       <c r="B19" s="2">
         <v>0.29</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="2">
         <v>72.108</v>
       </c>
       <c r="D19" s="2">
@@ -685,13 +670,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>1080</v>
       </c>
       <c r="B20" s="2">
         <v>0.29</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="2">
         <v>71.533</v>
       </c>
       <c r="D20" s="2">
@@ -699,13 +684,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>1140</v>
       </c>
       <c r="B21" s="2">
         <v>0.29</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="2">
         <v>71.15</v>
       </c>
       <c r="D21" s="2">
@@ -713,13 +698,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>1200</v>
       </c>
       <c r="B22" s="2">
         <v>0.29</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="2">
         <v>70.767</v>
       </c>
       <c r="D22" s="2">
@@ -727,13 +712,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>1260</v>
       </c>
       <c r="B23" s="2">
         <v>0.29</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="2">
         <v>70.192</v>
       </c>
       <c r="D23" s="2">
@@ -741,13 +726,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>1320</v>
       </c>
       <c r="B24" s="2">
         <v>0.29</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>69.775</v>
       </c>
       <c r="D24" s="2">
@@ -755,13 +740,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>1380</v>
       </c>
       <c r="B25" s="2">
         <v>0.29</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="2">
         <v>69.2</v>
       </c>
       <c r="D25" s="2">
@@ -769,13 +754,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>1440</v>
       </c>
       <c r="B26" s="2">
         <v>0.29</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="2">
         <v>68.817</v>
       </c>
       <c r="D26" s="2">
@@ -783,13 +768,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="4">
+      <c r="A27" s="1">
         <v>1500</v>
       </c>
       <c r="B27" s="2">
         <v>0.29</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="2">
         <v>68.242</v>
       </c>
       <c r="D27" s="2">
@@ -797,13 +782,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="4">
+      <c r="A28" s="1">
         <v>1560</v>
       </c>
       <c r="B28" s="2">
         <v>0.29</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="2">
         <v>67.667</v>
       </c>
       <c r="D28" s="2">
@@ -811,13 +796,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>1620</v>
       </c>
       <c r="B29" s="2">
         <v>0.29</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="2">
         <v>67.475</v>
       </c>
       <c r="D29" s="2">
@@ -825,13 +810,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>1680</v>
       </c>
       <c r="B30" s="2">
         <v>0.29</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="2">
         <v>66.9</v>
       </c>
       <c r="D30" s="2">
@@ -839,13 +824,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>1740</v>
       </c>
       <c r="B31" s="2">
         <v>0.29</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="2">
         <v>66.517</v>
       </c>
       <c r="D31" s="2">
@@ -853,13 +838,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="4">
+      <c r="A32" s="1">
         <v>1800</v>
       </c>
       <c r="B32" s="2">
         <v>0.29</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="2">
         <v>66.133</v>
       </c>
       <c r="D32" s="2">
@@ -867,13 +852,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="4">
+      <c r="A33" s="1">
         <v>1860</v>
       </c>
       <c r="B33" s="2">
         <v>0.29</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="2">
         <v>65.558</v>
       </c>
       <c r="D33" s="2">
@@ -881,13 +866,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="4">
+      <c r="A34" s="1">
         <v>1920</v>
       </c>
       <c r="B34" s="2">
         <v>0.29</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="2">
         <v>65.175</v>
       </c>
       <c r="D34" s="2">
@@ -895,13 +880,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>1980</v>
       </c>
       <c r="B35" s="2">
         <v>0.29</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="2">
         <v>64.6</v>
       </c>
       <c r="D35" s="2">
@@ -909,13 +894,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="4">
+      <c r="A36" s="1">
         <v>2040</v>
       </c>
       <c r="B36" s="2">
         <v>0.29</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="2">
         <v>64.217</v>
       </c>
       <c r="D36" s="2">
@@ -923,13 +908,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="4">
+      <c r="A37" s="1">
         <v>2100</v>
       </c>
       <c r="B37" s="2">
         <v>0.29</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="2">
         <v>63.642</v>
       </c>
       <c r="D37" s="2">
@@ -937,13 +922,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="4">
+      <c r="A38" s="1">
         <v>2160</v>
       </c>
       <c r="B38" s="2">
         <v>0.29</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="2">
         <v>63.45</v>
       </c>
       <c r="D38" s="2">
@@ -951,13 +936,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="4">
+      <c r="A39" s="1">
         <v>2220</v>
       </c>
       <c r="B39" s="2">
         <v>0.29</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="2">
         <v>63.067</v>
       </c>
       <c r="D39" s="2">
@@ -965,13 +950,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="4">
+      <c r="A40" s="1">
         <v>2280</v>
       </c>
       <c r="B40" s="2">
         <v>0.29</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="2">
         <v>62.683</v>
       </c>
       <c r="D40" s="2">
@@ -979,13 +964,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="4">
+      <c r="A41" s="1">
         <v>2340</v>
       </c>
       <c r="B41" s="2">
         <v>0.29</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="2">
         <v>62.108</v>
       </c>
       <c r="D41" s="2">
@@ -993,13 +978,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="4">
+      <c r="A42" s="1">
         <v>2400</v>
       </c>
       <c r="B42" s="2">
         <v>0.29</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="2">
         <v>61.725</v>
       </c>
       <c r="D42" s="2">
@@ -1007,13 +992,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="4">
+      <c r="A43" s="1">
         <v>2460</v>
       </c>
       <c r="B43" s="2">
         <v>0.29</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="2">
         <v>61.342</v>
       </c>
       <c r="D43" s="2">
@@ -1021,13 +1006,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="4">
+      <c r="A44" s="1">
         <v>2520</v>
       </c>
       <c r="B44" s="2">
         <v>0.29</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="2">
         <v>60.958</v>
       </c>
       <c r="D44" s="2">
@@ -1035,13 +1020,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="4">
+      <c r="A45" s="1">
         <v>2580</v>
       </c>
       <c r="B45" s="2">
         <v>0.29</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="2">
         <v>60.575</v>
       </c>
       <c r="D45" s="2">
@@ -1049,13 +1034,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="4">
+      <c r="A46" s="1">
         <v>2640</v>
       </c>
       <c r="B46" s="2">
         <v>0.29</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="2">
         <v>60.192</v>
       </c>
       <c r="D46" s="2">
@@ -1063,13 +1048,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="4">
+      <c r="A47" s="1">
         <v>2700</v>
       </c>
       <c r="B47" s="2">
         <v>0.29</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="2">
         <v>60.45</v>
       </c>
       <c r="D47" s="2">
@@ -1077,13 +1062,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="4">
+      <c r="A48" s="1">
         <v>2760</v>
       </c>
       <c r="B48" s="2">
         <v>0.29</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="2">
         <v>60.07</v>
       </c>
       <c r="D48" s="2">
@@ -1091,13 +1076,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="4">
+      <c r="A49" s="1">
         <v>2820</v>
       </c>
       <c r="B49" s="2">
         <v>0.29</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="2">
         <v>59.88</v>
       </c>
       <c r="D49" s="2">
@@ -1105,13 +1090,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="4">
+      <c r="A50" s="1">
         <v>2880</v>
       </c>
       <c r="B50" s="2">
         <v>0.29</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="2">
         <v>59.31</v>
       </c>
       <c r="D50" s="2">
@@ -1119,13 +1104,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="4">
+      <c r="A51" s="1">
         <v>2940</v>
       </c>
       <c r="B51" s="2">
         <v>0.29</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="2">
         <v>59.12</v>
       </c>
       <c r="D51" s="2">
@@ -1133,13 +1118,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="4">
+      <c r="A52" s="1">
         <v>3000</v>
       </c>
       <c r="B52" s="2">
         <v>0.29</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="2">
         <v>58.74</v>
       </c>
       <c r="D52" s="2">
@@ -1147,13 +1132,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="4">
+      <c r="A53" s="1">
         <v>3060</v>
       </c>
       <c r="B53" s="2">
         <v>0.29</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="2">
         <v>58.36</v>
       </c>
       <c r="D53" s="2">
@@ -1161,13 +1146,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="4">
+      <c r="A54" s="1">
         <v>3120</v>
       </c>
       <c r="B54" s="2">
         <v>0.29</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="2">
         <v>57.98</v>
       </c>
       <c r="D54" s="2">
@@ -1175,13 +1160,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="4">
+      <c r="A55" s="1">
         <v>3180</v>
       </c>
       <c r="B55" s="2">
         <v>0.29</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="2">
         <v>57.6</v>
       </c>
       <c r="D55" s="2">
@@ -1189,13 +1174,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="4">
+      <c r="A56" s="1">
         <v>3240</v>
       </c>
       <c r="B56" s="2">
         <v>0.29</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="2">
         <v>57.22</v>
       </c>
       <c r="D56" s="2">
@@ -1203,13 +1188,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="4">
+      <c r="A57" s="1">
         <v>3300</v>
       </c>
       <c r="B57" s="2">
         <v>0.29</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="2">
         <v>57.03</v>
       </c>
       <c r="D57" s="2">
@@ -1217,13 +1202,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="4">
+      <c r="A58" s="1">
         <v>3360</v>
       </c>
       <c r="B58" s="2">
         <v>0.29</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="2">
         <v>56.65</v>
       </c>
       <c r="D58" s="2">
@@ -1231,13 +1216,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="4">
+      <c r="A59" s="1">
         <v>3420</v>
       </c>
       <c r="B59" s="2">
         <v>0.29</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="2">
         <v>56.27</v>
       </c>
       <c r="D59" s="2">
@@ -1245,13 +1230,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="4">
+      <c r="A60" s="1">
         <v>3480</v>
       </c>
       <c r="B60" s="2">
         <v>0.29</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="2">
         <v>55.89</v>
       </c>
       <c r="D60" s="2">
@@ -1259,351 +1244,351 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="1"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="1"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="5"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="1"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="5"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="1"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="5"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="1"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="5"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="1"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="5"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="1"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="5"/>
+      <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="4"/>
+      <c r="A68" s="1"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="5"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="1"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="5"/>
+      <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
-      <c r="A70" s="4"/>
+      <c r="A70" s="1"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="5"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
-      <c r="A71" s="4"/>
+      <c r="A71" s="1"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="5"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
-      <c r="A72" s="4"/>
+      <c r="A72" s="1"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="5"/>
+      <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="1"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="5"/>
+      <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
-      <c r="A74" s="4"/>
+      <c r="A74" s="1"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="5"/>
+      <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
-      <c r="A75" s="4"/>
+      <c r="A75" s="1"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="5"/>
+      <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="1"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="5"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="1"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="5"/>
+      <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="1"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="5"/>
+      <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
-      <c r="A79" s="4"/>
+      <c r="A79" s="1"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="5"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="1"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="5"/>
+      <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="4"/>
+      <c r="A81" s="1"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="5"/>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="4"/>
+      <c r="A82" s="1"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="5"/>
+      <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
-      <c r="A83" s="4"/>
+      <c r="A83" s="1"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="5"/>
+      <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="4"/>
+      <c r="A84" s="1"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="5"/>
+      <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="1"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="5"/>
+      <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
-      <c r="A86" s="4"/>
+      <c r="A86" s="1"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="5"/>
+      <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
-      <c r="A87" s="4"/>
+      <c r="A87" s="1"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="5"/>
+      <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="1"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="5"/>
+      <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
-      <c r="A89" s="4"/>
+      <c r="A89" s="1"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="5"/>
+      <c r="C89" s="2"/>
       <c r="D89" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
-      <c r="A90" s="4"/>
+      <c r="A90" s="1"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="5"/>
+      <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="1"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="5"/>
+      <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
-      <c r="A92" s="4"/>
+      <c r="A92" s="1"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="5"/>
+      <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="4"/>
+      <c r="A93" s="1"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="5"/>
+      <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="4"/>
+      <c r="A94" s="1"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="5"/>
+      <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="4"/>
+      <c r="A95" s="1"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="5"/>
+      <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
-      <c r="A96" s="4"/>
+      <c r="A96" s="1"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="5"/>
+      <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
-      <c r="A97" s="4"/>
+      <c r="A97" s="1"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="5"/>
+      <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="1"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="5"/>
+      <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="1"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="5"/>
+      <c r="C99" s="2"/>
       <c r="D99" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="1"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="5"/>
+      <c r="C100" s="2"/>
       <c r="D100" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="1"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="5"/>
+      <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
-      <c r="A102" s="4"/>
+      <c r="A102" s="1"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="5"/>
+      <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
-      <c r="A103" s="4"/>
+      <c r="A103" s="1"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="5"/>
+      <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
-      <c r="A104" s="4"/>
+      <c r="A104" s="1"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="5"/>
+      <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
-      <c r="A105" s="4"/>
+      <c r="A105" s="1"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="5"/>
+      <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
-      <c r="A106" s="4"/>
+      <c r="A106" s="1"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="5"/>
+      <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
-      <c r="A107" s="4"/>
+      <c r="A107" s="1"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="5"/>
+      <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
-      <c r="A108" s="4"/>
+      <c r="A108" s="1"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="5"/>
+      <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
-      <c r="A109" s="4"/>
+      <c r="A109" s="1"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="5"/>
+      <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
-      <c r="A110" s="4"/>
+      <c r="A110" s="1"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="5"/>
+      <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
-      <c r="A111" s="4"/>
+      <c r="A111" s="1"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="4"/>
+      <c r="C111" s="1"/>
       <c r="D111" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
-      <c r="A112" s="4"/>
+      <c r="A112" s="1"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="4"/>
+      <c r="C112" s="1"/>
       <c r="D112" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
-      <c r="A113" s="4"/>
+      <c r="A113" s="1"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="4"/>
+      <c r="C113" s="1"/>
       <c r="D113" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
-      <c r="A114" s="4"/>
+      <c r="A114" s="1"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="5"/>
+      <c r="C114" s="2"/>
       <c r="D114" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
-      <c r="A115" s="4"/>
+      <c r="A115" s="1"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="5"/>
+      <c r="C115" s="2"/>
       <c r="D115" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
-      <c r="A116" s="4"/>
+      <c r="A116" s="1"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="5"/>
+      <c r="C116" s="2"/>
       <c r="D116" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
-      <c r="A117" s="4"/>
+      <c r="A117" s="1"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="5"/>
+      <c r="C117" s="2"/>
       <c r="D117" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
-      <c r="A118" s="4"/>
+      <c r="A118" s="1"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="5"/>
+      <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
   </sheetData>
